--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.97</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>23.96</v>
+        <v>0.12</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>10.74</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>7.86</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>24.75</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>39.22</v>
+        <v>0.15</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>24.17</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>24.51</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>25.21</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>49.82</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>51.74</v>
+        <v>0.24</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>28.98</v>
+        <v>0.16</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>48.86</v>
+        <v>0.21</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>23.67</v>
+        <v>0.1</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>25.7</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>19.72</v>
+        <v>0.09</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>28.29</v>
+        <v>0.13</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>226.8</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>205.2</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1134</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934.2</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>556.2</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1076.4</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2691</v>
+        <v>1076.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934.2</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>824.4</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>741.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>622.8000000000001</v>
+        <v>1557</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>179.7463443151348</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12</v>
+        <v>359.3372317645598</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>201.2350411200584</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>138.6269420381461</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>196.1692395998761</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>295</v>
+        <v>176</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.15</v>
+        <v>303.6830830436493</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>380.0217118540664</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>283.4850777779368</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>103.5683642371628</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>148.7533217615295</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>593</v>
+        <v>251</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24</v>
+        <v>108.176003240534</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16</v>
+        <v>164.5521477894453</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>278.956372152344</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>280.8534072604555</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>142.0565193376669</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09</v>
+        <v>104.6614657875261</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>314</v>
+        <v>154</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.13</v>
+        <v>313.5211962464154</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>102.6</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331.2</v>
+        <v>165.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1557</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1134</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453.6</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1614.6</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1076.4</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1557</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2061</v>
+        <v>1236.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680.4</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>185.4</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1557</v>
+        <v>311.4</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>179.7463443151348</v>
+        <v>8.026950129115768</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>359.3372317645598</v>
+        <v>24.23618459052383</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>201.2350411200584</v>
+        <v>11.63087316986149</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>138.6269420381461</v>
+        <v>10.89620634095376</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>196.1692395998761</v>
+        <v>13.36092256130671</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>303.6830830436493</v>
+        <v>18.32239993195594</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>380.0217118540664</v>
+        <v>20.36210174687501</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>283.4850777779368</v>
+        <v>16.40286770699406</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>103.5683642371628</v>
+        <v>6.116651523927243</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>430</v>
+        <v>251</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>148.7533217615295</v>
+        <v>8.430862439752286</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>108.176003240534</v>
+        <v>5.255759945660764</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>164.5521477894453</v>
+        <v>8.359705844253888</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>278.956372152344</v>
+        <v>16.04787303897727</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>280.8534072604555</v>
+        <v>16.49372345999638</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>142.0565193376669</v>
+        <v>8.118533485054568</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>104.6614657875261</v>
+        <v>8.546584435605366</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>313.5211962464154</v>
+        <v>22.01346686440272</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>165.6</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622.8000000000001</v>
+        <v>934.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453.6</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370.8</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1134</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2691</v>
+        <v>1076.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1245.6</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>556.2</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>8.026950129115768</v>
+        <v>77.04786986094616</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>614</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>24.23618459052383</v>
+        <v>222.2464397418721</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>11.63087316986149</v>
+        <v>81.14823176968672</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>10.89620634095376</v>
+        <v>72.27143110055265</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>13.36092256130671</v>
+        <v>100.5160462328902</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>132</v>
+        <v>846</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>18.32239993195594</v>
+        <v>147.9172654912</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>185</v>
+        <v>614</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>20.36210174687501</v>
+        <v>209.8458997654046</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>16.40286770699406</v>
+        <v>152.41429521745</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>121</v>
+        <v>614</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>6.116651523927243</v>
+        <v>60.89292565699432</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>251</v>
+        <v>1470</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>8.430862439752286</v>
+        <v>85.78216188055116</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>437</v>
+        <v>1470</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>5.255759945660764</v>
+        <v>55.66529272054219</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>171</v>
+        <v>846</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>8.359705844253888</v>
+        <v>88.67736870198478</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>179</v>
+        <v>1123</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>16.04787303897727</v>
+        <v>145.1950876906062</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>614</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.49372345999638</v>
+        <v>101.3923157842757</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>614</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>8.118533485054568</v>
+        <v>64.0350103654912</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>133</v>
+        <v>501</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>8.546584435605366</v>
+        <v>51.73657818738454</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>240</v>
+        <v>846</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>22.01346686440272</v>
+        <v>137.1643362931657</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>226.8</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307.8</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331.2</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1134</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934.2</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1134</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>927</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>226.8</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2691</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1076.4</v>
+        <v>2152.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1557</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1236.6</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>907.2</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>370.8</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>338</v>
+        <v>1051</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>77.04786986094616</v>
+        <v>86.625</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>614</v>
+        <v>1891</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>222.2464397418721</v>
+        <v>232.6401</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>275</v>
+        <v>856</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>81.14823176968672</v>
+        <v>106.7553</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>221</v>
+        <v>691</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>72.27143110055265</v>
+        <v>87.92117999999999</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>614</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>100.5160462328902</v>
+        <v>136.08</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>846</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>147.9172654912</v>
+        <v>182.9475</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>209.8458997654046</v>
+        <v>224.1351</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>152.41429521745</v>
+        <v>181.3212</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>60.89292565699432</v>
+        <v>62.37</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>85.78216188055116</v>
+        <v>80.73000000000002</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>55.66529272054219</v>
+        <v>53.82000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>88.67736870198478</v>
+        <v>85.63500000000001</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1123</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>145.1950876906062</v>
+        <v>154.575</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>101.3923157842757</v>
+        <v>136.08</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>64.0350103654912</v>
+        <v>85.22010000000002</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>51.73657818738454</v>
+        <v>69.6177</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>137.1643362931657</v>
+        <v>182.9475</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680.4</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680.4</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>311.4</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453.6</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.4</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1134</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1614.6</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2152.8</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622.8000000000001</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2061</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453.6</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>927</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>311.4</v>
+        <v>8650</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_Lumpy.xlsx
+++ b/Instances/03_Lumpy.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>86.625</v>
+        <v>46.2</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1891</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>232.6401</v>
+        <v>124.07472</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7553</v>
+        <v>56.93616000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>87.92117999999999</v>
+        <v>46.891296</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>136.08</v>
+        <v>72.57600000000001</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>182.9475</v>
+        <v>97.572</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>224.1351</v>
+        <v>119.53872</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>181.3212</v>
+        <v>96.70464</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>62.37</v>
+        <v>33.264</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>80.73000000000002</v>
+        <v>43.05600000000001</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>53.82000000000001</v>
+        <v>28.704</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>85.63500000000001</v>
+        <v>45.672</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>154.575</v>
+        <v>82.44000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>136.08</v>
+        <v>72.57600000000001</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>85.22010000000002</v>
+        <v>45.45072000000001</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>69.6177</v>
+        <v>37.12944</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>182.9475</v>
+        <v>97.572</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6300</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2850</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>460</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2520</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3780</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2520</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5190</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9160</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6300</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4120</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8650</v>
+        <v>5190</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
